--- a/experiments/ana-flavia-NRxSTD-NR-trim/sheets/absolute-filtered_frequencies.xlsx
+++ b/experiments/ana-flavia-NRxSTD-NR-trim/sheets/absolute-filtered_frequencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="299">
   <si>
     <t>total_sum</t>
   </si>
@@ -31,40 +31,40 @@
     <t>STD-NR</t>
   </si>
   <si>
-    <t>210421121677</t>
-  </si>
-  <si>
-    <t>210421121678</t>
-  </si>
-  <si>
-    <t>210421121679</t>
-  </si>
-  <si>
-    <t>210421121680</t>
-  </si>
-  <si>
-    <t>210421121681</t>
-  </si>
-  <si>
-    <t>210421121685</t>
-  </si>
-  <si>
-    <t>210421121686</t>
-  </si>
-  <si>
-    <t>210421121687</t>
-  </si>
-  <si>
-    <t>210421121703</t>
-  </si>
-  <si>
-    <t>210421121704</t>
-  </si>
-  <si>
-    <t>210421121705</t>
-  </si>
-  <si>
-    <t>210421121706</t>
+    <t>S210421121677</t>
+  </si>
+  <si>
+    <t>S210421121678</t>
+  </si>
+  <si>
+    <t>S210421121679</t>
+  </si>
+  <si>
+    <t>S210421121680</t>
+  </si>
+  <si>
+    <t>S210421121681</t>
+  </si>
+  <si>
+    <t>S210421121685</t>
+  </si>
+  <si>
+    <t>S210421121686</t>
+  </si>
+  <si>
+    <t>S210421121687</t>
+  </si>
+  <si>
+    <t>S210421121703</t>
+  </si>
+  <si>
+    <t>S210421121704</t>
+  </si>
+  <si>
+    <t>S210421121705</t>
+  </si>
+  <si>
+    <t>S210421121706</t>
   </si>
   <si>
     <t>Bacteria</t>
@@ -580,12 +580,12 @@
     <t>Coriobacteriaceae_UCG-002</t>
   </si>
   <si>
+    <t>Papillibacter</t>
+  </si>
+  <si>
     <t>Coprobacillus</t>
   </si>
   <si>
-    <t>Papillibacter</t>
-  </si>
-  <si>
     <t>Lachnospiraceae_UCG-006</t>
   </si>
   <si>
@@ -697,24 +697,24 @@
     <t>[Eubacterium]_brachy_group</t>
   </si>
   <si>
+    <t>Achromobacter</t>
+  </si>
+  <si>
+    <t>UCG-004</t>
+  </si>
+  <si>
+    <t>Aerococcus</t>
+  </si>
+  <si>
+    <t>UCG-007</t>
+  </si>
+  <si>
+    <t>Parvibacter</t>
+  </si>
+  <si>
     <t>Rikenella</t>
   </si>
   <si>
-    <t>UCG-004</t>
-  </si>
-  <si>
-    <t>Achromobacter</t>
-  </si>
-  <si>
-    <t>Aerococcus</t>
-  </si>
-  <si>
-    <t>UCG-007</t>
-  </si>
-  <si>
-    <t>Parvibacter</t>
-  </si>
-  <si>
     <t>Paludicola</t>
   </si>
   <si>
@@ -742,12 +742,12 @@
     <t>Acetatifactor</t>
   </si>
   <si>
+    <t>Corynebacterium</t>
+  </si>
+  <si>
     <t>UCG-003</t>
   </si>
   <si>
-    <t>Corynebacterium</t>
-  </si>
-  <si>
     <t>Acinetobacter</t>
   </si>
   <si>
@@ -787,18 +787,21 @@
     <t>Lachnospiraceae_FCS020_group</t>
   </si>
   <si>
+    <t>[Eubacterium]_fissicatena_group</t>
+  </si>
+  <si>
     <t>Bacillus</t>
   </si>
   <si>
     <t>Eubacterium</t>
   </si>
   <si>
+    <t>Enterococcus</t>
+  </si>
+  <si>
     <t>Sphingomonas</t>
   </si>
   <si>
-    <t>Enterococcus</t>
-  </si>
-  <si>
     <t>DTU089</t>
   </si>
   <si>
@@ -868,10 +871,10 @@
     <t>Streptococcus_hyointestinalis</t>
   </si>
   <si>
+    <t>[Clostridium]_leptum</t>
+  </si>
+  <si>
     <t>Alistipes_timonensis</t>
-  </si>
-  <si>
-    <t>[Clostridium]_leptum</t>
   </si>
   <si>
     <t>Extibacter_muris</t>
@@ -1329,49 +1332,49 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1685857</v>
+        <v>1685743</v>
       </c>
       <c r="C2">
-        <v>859567</v>
+        <v>859425</v>
       </c>
       <c r="D2">
-        <v>826290</v>
+        <v>826318</v>
       </c>
       <c r="E2">
-        <v>234907</v>
+        <v>234838</v>
       </c>
       <c r="F2">
-        <v>67503</v>
+        <v>67500</v>
       </c>
       <c r="G2">
-        <v>227044</v>
+        <v>227035</v>
       </c>
       <c r="H2">
-        <v>182394</v>
+        <v>182333</v>
       </c>
       <c r="I2">
         <v>147719</v>
       </c>
       <c r="J2">
-        <v>177656</v>
+        <v>177616</v>
       </c>
       <c r="K2">
-        <v>55725</v>
+        <v>56146</v>
       </c>
       <c r="L2">
-        <v>46487</v>
+        <v>46462</v>
       </c>
       <c r="M2">
-        <v>15835</v>
+        <v>15834</v>
       </c>
       <c r="N2">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="O2">
-        <v>239250</v>
+        <v>239260</v>
       </c>
       <c r="P2">
-        <v>287955</v>
+        <v>287619</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1489,34 +1492,34 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1158218</v>
+        <v>1157943</v>
       </c>
       <c r="C2">
-        <v>677598</v>
+        <v>677550</v>
       </c>
       <c r="D2">
-        <v>480620</v>
+        <v>480393</v>
       </c>
       <c r="E2">
-        <v>189534</v>
+        <v>189504</v>
       </c>
       <c r="F2">
-        <v>53332</v>
+        <v>53330</v>
       </c>
       <c r="G2">
-        <v>194744</v>
+        <v>194736</v>
       </c>
       <c r="H2">
-        <v>109241</v>
+        <v>109232</v>
       </c>
       <c r="I2">
-        <v>130747</v>
+        <v>130748</v>
       </c>
       <c r="J2">
-        <v>98756</v>
+        <v>98731</v>
       </c>
       <c r="K2">
-        <v>38952</v>
+        <v>38961</v>
       </c>
       <c r="L2">
         <v>8572</v>
@@ -1528,10 +1531,10 @@
         <v>653</v>
       </c>
       <c r="O2">
-        <v>184001</v>
+        <v>183988</v>
       </c>
       <c r="P2">
-        <v>149536</v>
+        <v>149338</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1539,49 +1542,49 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>465739</v>
+        <v>465934</v>
       </c>
       <c r="C3">
-        <v>141781</v>
+        <v>141730</v>
       </c>
       <c r="D3">
-        <v>323958</v>
+        <v>324204</v>
       </c>
       <c r="E3">
-        <v>10149</v>
+        <v>10150</v>
       </c>
       <c r="F3">
-        <v>13871</v>
+        <v>13870</v>
       </c>
       <c r="G3">
-        <v>31216</v>
+        <v>31215</v>
       </c>
       <c r="H3">
-        <v>70439</v>
+        <v>70390</v>
       </c>
       <c r="I3">
-        <v>16106</v>
+        <v>16105</v>
       </c>
       <c r="J3">
-        <v>75010</v>
+        <v>74995</v>
       </c>
       <c r="K3">
-        <v>16165</v>
+        <v>16577</v>
       </c>
       <c r="L3">
-        <v>36581</v>
+        <v>36555</v>
       </c>
       <c r="M3">
-        <v>14081</v>
+        <v>14080</v>
       </c>
       <c r="N3">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="O3">
-        <v>51670</v>
+        <v>51689</v>
       </c>
       <c r="P3">
-        <v>127770</v>
+        <v>127628</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1589,16 +1592,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>34171</v>
+        <v>34170</v>
       </c>
       <c r="C4">
-        <v>31964</v>
+        <v>31963</v>
       </c>
       <c r="D4">
         <v>2207</v>
       </c>
       <c r="E4">
-        <v>31909</v>
+        <v>31908</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1639,16 +1642,16 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>12084</v>
+        <v>12056</v>
       </c>
       <c r="C5">
-        <v>5752</v>
+        <v>5713</v>
       </c>
       <c r="D5">
-        <v>6332</v>
+        <v>6343</v>
       </c>
       <c r="E5">
-        <v>3302</v>
+        <v>3263</v>
       </c>
       <c r="F5">
         <v>178</v>
@@ -1663,7 +1666,7 @@
         <v>447</v>
       </c>
       <c r="J5">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K5">
         <v>138</v>
@@ -1672,16 +1675,16 @@
         <v>196</v>
       </c>
       <c r="M5">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N5">
         <v>38</v>
       </c>
       <c r="O5">
-        <v>2371</v>
+        <v>2377</v>
       </c>
       <c r="P5">
-        <v>1691</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1689,13 +1692,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>7158</v>
+        <v>7159</v>
       </c>
       <c r="C6">
         <v>173</v>
       </c>
       <c r="D6">
-        <v>6985</v>
+        <v>6986</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1719,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6">
         <v>250</v>
@@ -1739,13 +1742,13 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>4871</v>
+        <v>4865</v>
       </c>
       <c r="C7">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="D7">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="E7">
         <v>13</v>
@@ -1757,13 +1760,13 @@
         <v>24</v>
       </c>
       <c r="H7">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="I7">
         <v>348</v>
       </c>
       <c r="J7">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="K7">
         <v>87</v>
@@ -1772,16 +1775,16 @@
         <v>253</v>
       </c>
       <c r="M7">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P7">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2149,34 +2152,34 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1158218</v>
+        <v>1157943</v>
       </c>
       <c r="C2">
-        <v>677598</v>
+        <v>677550</v>
       </c>
       <c r="D2">
-        <v>480620</v>
+        <v>480393</v>
       </c>
       <c r="E2">
-        <v>189534</v>
+        <v>189504</v>
       </c>
       <c r="F2">
-        <v>53332</v>
+        <v>53330</v>
       </c>
       <c r="G2">
-        <v>194744</v>
+        <v>194736</v>
       </c>
       <c r="H2">
-        <v>109241</v>
+        <v>109232</v>
       </c>
       <c r="I2">
-        <v>130747</v>
+        <v>130748</v>
       </c>
       <c r="J2">
-        <v>98756</v>
+        <v>98731</v>
       </c>
       <c r="K2">
-        <v>38952</v>
+        <v>38961</v>
       </c>
       <c r="L2">
         <v>8572</v>
@@ -2188,10 +2191,10 @@
         <v>653</v>
       </c>
       <c r="O2">
-        <v>184001</v>
+        <v>183988</v>
       </c>
       <c r="P2">
-        <v>149536</v>
+        <v>149338</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2199,49 +2202,49 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>354325</v>
+        <v>354541</v>
       </c>
       <c r="C3">
-        <v>99324</v>
+        <v>99273</v>
       </c>
       <c r="D3">
-        <v>255001</v>
+        <v>255268</v>
       </c>
       <c r="E3">
-        <v>6480</v>
+        <v>6481</v>
       </c>
       <c r="F3">
-        <v>5273</v>
+        <v>5272</v>
       </c>
       <c r="G3">
-        <v>26145</v>
+        <v>26144</v>
       </c>
       <c r="H3">
-        <v>52033</v>
+        <v>51983</v>
       </c>
       <c r="I3">
         <v>9393</v>
       </c>
       <c r="J3">
-        <v>63452</v>
+        <v>63437</v>
       </c>
       <c r="K3">
-        <v>12961</v>
+        <v>13369</v>
       </c>
       <c r="L3">
-        <v>22882</v>
+        <v>22875</v>
       </c>
       <c r="M3">
-        <v>9608</v>
+        <v>9607</v>
       </c>
       <c r="N3">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="O3">
-        <v>44421</v>
+        <v>44441</v>
       </c>
       <c r="P3">
-        <v>100346</v>
+        <v>100209</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2249,13 +2252,13 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>109246</v>
+        <v>109225</v>
       </c>
       <c r="C4">
         <v>42457</v>
       </c>
       <c r="D4">
-        <v>66789</v>
+        <v>66768</v>
       </c>
       <c r="E4">
         <v>3669</v>
@@ -2267,19 +2270,19 @@
         <v>5071</v>
       </c>
       <c r="H4">
-        <v>18406</v>
+        <v>18407</v>
       </c>
       <c r="I4">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="J4">
         <v>11558</v>
       </c>
       <c r="K4">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="L4">
-        <v>13699</v>
+        <v>13680</v>
       </c>
       <c r="M4">
         <v>4473</v>
@@ -2288,10 +2291,10 @@
         <v>1350</v>
       </c>
       <c r="O4">
-        <v>5426</v>
+        <v>5425</v>
       </c>
       <c r="P4">
-        <v>27079</v>
+        <v>27074</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2299,16 +2302,16 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>34171</v>
+        <v>34170</v>
       </c>
       <c r="C5">
-        <v>31964</v>
+        <v>31963</v>
       </c>
       <c r="D5">
         <v>2207</v>
       </c>
       <c r="E5">
-        <v>31909</v>
+        <v>31908</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2349,16 +2352,16 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>11453</v>
+        <v>11425</v>
       </c>
       <c r="C6">
-        <v>5703</v>
+        <v>5664</v>
       </c>
       <c r="D6">
-        <v>5750</v>
+        <v>5761</v>
       </c>
       <c r="E6">
-        <v>3293</v>
+        <v>3254</v>
       </c>
       <c r="F6">
         <v>178</v>
@@ -2373,7 +2376,7 @@
         <v>447</v>
       </c>
       <c r="J6">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K6">
         <v>138</v>
@@ -2382,16 +2385,16 @@
         <v>196</v>
       </c>
       <c r="M6">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="N6">
         <v>38</v>
       </c>
       <c r="O6">
-        <v>1946</v>
+        <v>1952</v>
       </c>
       <c r="P6">
-        <v>1611</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2399,13 +2402,13 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>7158</v>
+        <v>7159</v>
       </c>
       <c r="C7">
         <v>173</v>
       </c>
       <c r="D7">
-        <v>6985</v>
+        <v>6986</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2429,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M7">
         <v>250</v>
@@ -2449,10 +2452,10 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="C8">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D8">
         <v>1272</v>
@@ -2467,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I8">
         <v>55</v>
@@ -2499,13 +2502,13 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="C9">
         <v>953</v>
       </c>
       <c r="D9">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E9">
         <v>13</v>
@@ -2523,7 +2526,7 @@
         <v>293</v>
       </c>
       <c r="J9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K9">
         <v>12</v>
@@ -2532,16 +2535,16 @@
         <v>253</v>
       </c>
       <c r="M9">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P9">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3009,34 +3012,34 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>1158218</v>
+        <v>1157943</v>
       </c>
       <c r="C2">
-        <v>677598</v>
+        <v>677550</v>
       </c>
       <c r="D2">
-        <v>480620</v>
+        <v>480393</v>
       </c>
       <c r="E2">
-        <v>189534</v>
+        <v>189504</v>
       </c>
       <c r="F2">
-        <v>53332</v>
+        <v>53330</v>
       </c>
       <c r="G2">
-        <v>194744</v>
+        <v>194736</v>
       </c>
       <c r="H2">
-        <v>109241</v>
+        <v>109232</v>
       </c>
       <c r="I2">
-        <v>130747</v>
+        <v>130748</v>
       </c>
       <c r="J2">
-        <v>98756</v>
+        <v>98731</v>
       </c>
       <c r="K2">
-        <v>38952</v>
+        <v>38961</v>
       </c>
       <c r="L2">
         <v>8572</v>
@@ -3048,10 +3051,10 @@
         <v>653</v>
       </c>
       <c r="O2">
-        <v>184001</v>
+        <v>183988</v>
       </c>
       <c r="P2">
-        <v>149536</v>
+        <v>149338</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3059,37 +3062,37 @@
         <v>46</v>
       </c>
       <c r="B3">
-        <v>124650</v>
+        <v>124743</v>
       </c>
       <c r="C3">
-        <v>51090</v>
+        <v>51040</v>
       </c>
       <c r="D3">
-        <v>73560</v>
+        <v>73703</v>
       </c>
       <c r="E3">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="F3">
         <v>1158</v>
       </c>
       <c r="G3">
-        <v>17979</v>
+        <v>17977</v>
       </c>
       <c r="H3">
-        <v>25507</v>
+        <v>25459</v>
       </c>
       <c r="I3">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="J3">
-        <v>23002</v>
+        <v>22999</v>
       </c>
       <c r="K3">
-        <v>4318</v>
+        <v>4447</v>
       </c>
       <c r="L3">
-        <v>9792</v>
+        <v>9788</v>
       </c>
       <c r="M3">
         <v>941</v>
@@ -3098,7 +3101,7 @@
         <v>481</v>
       </c>
       <c r="O3">
-        <v>25958</v>
+        <v>25979</v>
       </c>
       <c r="P3">
         <v>9068</v>
@@ -3109,19 +3112,19 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>119420</v>
+        <v>119642</v>
       </c>
       <c r="C4">
         <v>32902</v>
       </c>
       <c r="D4">
-        <v>86518</v>
+        <v>86740</v>
       </c>
       <c r="E4">
         <v>1876</v>
       </c>
       <c r="F4">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="G4">
         <v>6940</v>
@@ -3130,28 +3133,28 @@
         <v>14616</v>
       </c>
       <c r="I4">
-        <v>5574</v>
+        <v>5575</v>
       </c>
       <c r="J4">
-        <v>23579</v>
+        <v>23571</v>
       </c>
       <c r="K4">
-        <v>5325</v>
+        <v>5603</v>
       </c>
       <c r="L4">
-        <v>9391</v>
+        <v>9389</v>
       </c>
       <c r="M4">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N4">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O4">
-        <v>16085</v>
+        <v>16084</v>
       </c>
       <c r="P4">
-        <v>30642</v>
+        <v>30599</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3159,13 +3162,13 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>72606</v>
+        <v>72512</v>
       </c>
       <c r="C5">
         <v>337</v>
       </c>
       <c r="D5">
-        <v>72269</v>
+        <v>72175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3183,13 +3186,13 @@
         <v>232</v>
       </c>
       <c r="J5">
-        <v>12540</v>
+        <v>12537</v>
       </c>
       <c r="K5">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="L5">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="M5">
         <v>2633</v>
@@ -3201,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="P5">
-        <v>50591</v>
+        <v>50499</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3209,13 +3212,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>70198</v>
+        <v>70200</v>
       </c>
       <c r="C6">
-        <v>36933</v>
+        <v>36932</v>
       </c>
       <c r="D6">
-        <v>33265</v>
+        <v>33268</v>
       </c>
       <c r="E6">
         <v>2142</v>
@@ -3230,13 +3233,13 @@
         <v>16258</v>
       </c>
       <c r="I6">
-        <v>5901</v>
+        <v>5900</v>
       </c>
       <c r="J6">
         <v>7626</v>
       </c>
       <c r="K6">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="L6">
         <v>12364</v>
@@ -3251,7 +3254,7 @@
         <v>2420</v>
       </c>
       <c r="P6">
-        <v>4577</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3259,16 +3262,16 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>34171</v>
+        <v>34170</v>
       </c>
       <c r="C7">
-        <v>31964</v>
+        <v>31963</v>
       </c>
       <c r="D7">
         <v>2207</v>
       </c>
       <c r="E7">
-        <v>31909</v>
+        <v>31908</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3312,10 +3315,10 @@
         <v>28070</v>
       </c>
       <c r="C8">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="D8">
-        <v>26375</v>
+        <v>26374</v>
       </c>
       <c r="E8">
         <v>160</v>
@@ -3327,7 +3330,7 @@
         <v>280</v>
       </c>
       <c r="H8">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="I8">
         <v>232</v>
@@ -3348,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="P8">
         <v>20187</v>
@@ -3362,10 +3365,10 @@
         <v>18654</v>
       </c>
       <c r="C9">
-        <v>11740</v>
+        <v>11741</v>
       </c>
       <c r="D9">
-        <v>6914</v>
+        <v>6913</v>
       </c>
       <c r="E9">
         <v>320</v>
@@ -3374,7 +3377,7 @@
         <v>118</v>
       </c>
       <c r="G9">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H9">
         <v>9773</v>
@@ -3401,7 +3404,7 @@
         <v>1210</v>
       </c>
       <c r="P9">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3409,13 +3412,13 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>7158</v>
+        <v>7159</v>
       </c>
       <c r="C10">
         <v>173</v>
       </c>
       <c r="D10">
-        <v>6985</v>
+        <v>6986</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3439,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10">
         <v>250</v>
@@ -3459,13 +3462,13 @@
         <v>54</v>
       </c>
       <c r="B11">
-        <v>7136</v>
+        <v>7137</v>
       </c>
       <c r="C11">
         <v>53</v>
       </c>
       <c r="D11">
-        <v>7083</v>
+        <v>7084</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3501,7 +3504,7 @@
         <v>246</v>
       </c>
       <c r="P11">
-        <v>5912</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3559,13 +3562,13 @@
         <v>56</v>
       </c>
       <c r="B13">
-        <v>5769</v>
+        <v>5781</v>
       </c>
       <c r="C13">
         <v>2598</v>
       </c>
       <c r="D13">
-        <v>3171</v>
+        <v>3183</v>
       </c>
       <c r="E13">
         <v>1346</v>
@@ -3592,16 +3595,16 @@
         <v>20</v>
       </c>
       <c r="M13">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="P13">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3609,16 +3612,16 @@
         <v>57</v>
       </c>
       <c r="B14">
-        <v>4686</v>
+        <v>4647</v>
       </c>
       <c r="C14">
-        <v>2987</v>
+        <v>2948</v>
       </c>
       <c r="D14">
         <v>1699</v>
       </c>
       <c r="E14">
-        <v>1947</v>
+        <v>1908</v>
       </c>
       <c r="F14">
         <v>117</v>
@@ -3659,13 +3662,13 @@
         <v>58</v>
       </c>
       <c r="B15">
-        <v>4618</v>
+        <v>4616</v>
       </c>
       <c r="C15">
         <v>93</v>
       </c>
       <c r="D15">
-        <v>4525</v>
+        <v>4523</v>
       </c>
       <c r="E15">
         <v>34</v>
@@ -3683,10 +3686,10 @@
         <v>11</v>
       </c>
       <c r="J15">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K15">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L15">
         <v>62</v>
@@ -3709,13 +3712,13 @@
         <v>59</v>
       </c>
       <c r="B16">
-        <v>4197</v>
+        <v>4174</v>
       </c>
       <c r="C16">
         <v>165</v>
       </c>
       <c r="D16">
-        <v>4032</v>
+        <v>4009</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3739,7 +3742,7 @@
         <v>48</v>
       </c>
       <c r="L16">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="M16">
         <v>188</v>
@@ -3751,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="P16">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -3759,13 +3762,13 @@
         <v>60</v>
       </c>
       <c r="B17">
-        <v>3659</v>
+        <v>3656</v>
       </c>
       <c r="C17">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D17">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E17">
         <v>466</v>
@@ -3777,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="H17">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I17">
         <v>100</v>
@@ -3801,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -3809,13 +3812,13 @@
         <v>61</v>
       </c>
       <c r="B18">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="C18">
         <v>953</v>
       </c>
       <c r="D18">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E18">
         <v>13</v>
@@ -3833,7 +3836,7 @@
         <v>293</v>
       </c>
       <c r="J18">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K18">
         <v>12</v>
@@ -3842,16 +3845,16 @@
         <v>253</v>
       </c>
       <c r="M18">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P18">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -3859,10 +3862,10 @@
         <v>62</v>
       </c>
       <c r="B19">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C19">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D19">
         <v>1162</v>
@@ -3877,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3959,10 +3962,10 @@
         <v>64</v>
       </c>
       <c r="B21">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C21">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D21">
         <v>1486</v>
@@ -3977,7 +3980,7 @@
         <v>257</v>
       </c>
       <c r="H21">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I21">
         <v>47</v>
@@ -4309,13 +4312,13 @@
         <v>71</v>
       </c>
       <c r="B28">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C28">
         <v>118</v>
       </c>
       <c r="D28">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4333,7 +4336,7 @@
         <v>22</v>
       </c>
       <c r="J28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -5169,34 +5172,34 @@
         <v>86</v>
       </c>
       <c r="B2">
-        <v>778099</v>
+        <v>777818</v>
       </c>
       <c r="C2">
-        <v>406339</v>
+        <v>406297</v>
       </c>
       <c r="D2">
-        <v>371760</v>
+        <v>371521</v>
       </c>
       <c r="E2">
-        <v>116919</v>
+        <v>116891</v>
       </c>
       <c r="F2">
-        <v>29525</v>
+        <v>29523</v>
       </c>
       <c r="G2">
-        <v>90110</v>
+        <v>90108</v>
       </c>
       <c r="H2">
-        <v>96352</v>
+        <v>96343</v>
       </c>
       <c r="I2">
-        <v>73433</v>
+        <v>73432</v>
       </c>
       <c r="J2">
-        <v>95001</v>
+        <v>94971</v>
       </c>
       <c r="K2">
-        <v>31677</v>
+        <v>31684</v>
       </c>
       <c r="L2">
         <v>7738</v>
@@ -5208,10 +5211,10 @@
         <v>496</v>
       </c>
       <c r="O2">
-        <v>95209</v>
+        <v>95191</v>
       </c>
       <c r="P2">
-        <v>141499</v>
+        <v>141301</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5219,34 +5222,34 @@
         <v>87</v>
       </c>
       <c r="B3">
-        <v>183158</v>
+        <v>183178</v>
       </c>
       <c r="C3">
-        <v>95430</v>
+        <v>95431</v>
       </c>
       <c r="D3">
-        <v>87728</v>
+        <v>87747</v>
       </c>
       <c r="E3">
-        <v>50168</v>
+        <v>50166</v>
       </c>
       <c r="F3">
-        <v>7283</v>
+        <v>7284</v>
       </c>
       <c r="G3">
-        <v>18411</v>
+        <v>18410</v>
       </c>
       <c r="H3">
         <v>5662</v>
       </c>
       <c r="I3">
-        <v>13906</v>
+        <v>13909</v>
       </c>
       <c r="J3">
         <v>1028</v>
       </c>
       <c r="K3">
-        <v>6047</v>
+        <v>6048</v>
       </c>
       <c r="L3">
         <v>557</v>
@@ -5258,7 +5261,7 @@
         <v>157</v>
       </c>
       <c r="O3">
-        <v>72149</v>
+        <v>72167</v>
       </c>
       <c r="P3">
         <v>7780</v>
@@ -5269,13 +5272,13 @@
         <v>88</v>
       </c>
       <c r="B4">
-        <v>172220</v>
+        <v>172219</v>
       </c>
       <c r="C4">
-        <v>159717</v>
+        <v>159712</v>
       </c>
       <c r="D4">
-        <v>12503</v>
+        <v>12507</v>
       </c>
       <c r="E4">
         <v>16528</v>
@@ -5284,19 +5287,19 @@
         <v>16190</v>
       </c>
       <c r="G4">
-        <v>77301</v>
+        <v>77297</v>
       </c>
       <c r="H4">
         <v>6844</v>
       </c>
       <c r="I4">
-        <v>42854</v>
+        <v>42853</v>
       </c>
       <c r="J4">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="K4">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L4">
         <v>241</v>
@@ -5308,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9759</v>
+        <v>9757</v>
       </c>
       <c r="P4">
         <v>90</v>
@@ -5319,37 +5322,37 @@
         <v>89</v>
       </c>
       <c r="B5">
-        <v>124388</v>
+        <v>124481</v>
       </c>
       <c r="C5">
-        <v>50990</v>
+        <v>50940</v>
       </c>
       <c r="D5">
-        <v>73398</v>
+        <v>73541</v>
       </c>
       <c r="E5">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="F5">
         <v>1123</v>
       </c>
       <c r="G5">
-        <v>17979</v>
+        <v>17977</v>
       </c>
       <c r="H5">
-        <v>25499</v>
+        <v>25451</v>
       </c>
       <c r="I5">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="J5">
-        <v>22863</v>
+        <v>22860</v>
       </c>
       <c r="K5">
-        <v>4318</v>
+        <v>4447</v>
       </c>
       <c r="L5">
-        <v>9782</v>
+        <v>9778</v>
       </c>
       <c r="M5">
         <v>941</v>
@@ -5358,7 +5361,7 @@
         <v>481</v>
       </c>
       <c r="O5">
-        <v>25958</v>
+        <v>25979</v>
       </c>
       <c r="P5">
         <v>9055</v>
@@ -5369,13 +5372,13 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>72606</v>
+        <v>72512</v>
       </c>
       <c r="C6">
         <v>337</v>
       </c>
       <c r="D6">
-        <v>72269</v>
+        <v>72175</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5393,13 +5396,13 @@
         <v>232</v>
       </c>
       <c r="J6">
-        <v>12540</v>
+        <v>12537</v>
       </c>
       <c r="K6">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="L6">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="M6">
         <v>2633</v>
@@ -5411,7 +5414,7 @@
         <v>2</v>
       </c>
       <c r="P6">
-        <v>50591</v>
+        <v>50499</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5419,13 +5422,13 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>68535</v>
+        <v>68538</v>
       </c>
       <c r="C7">
         <v>35831</v>
       </c>
       <c r="D7">
-        <v>32704</v>
+        <v>32707</v>
       </c>
       <c r="E7">
         <v>1988</v>
@@ -5446,7 +5449,7 @@
         <v>7594</v>
       </c>
       <c r="K7">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="L7">
         <v>12364</v>
@@ -5461,7 +5464,7 @@
         <v>2187</v>
       </c>
       <c r="P7">
-        <v>4350</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5469,13 +5472,13 @@
         <v>91</v>
       </c>
       <c r="B8">
-        <v>42228</v>
+        <v>42432</v>
       </c>
       <c r="C8">
-        <v>17220</v>
+        <v>17208</v>
       </c>
       <c r="D8">
-        <v>25008</v>
+        <v>25224</v>
       </c>
       <c r="E8">
         <v>1443</v>
@@ -5484,34 +5487,34 @@
         <v>665</v>
       </c>
       <c r="G8">
-        <v>6293</v>
+        <v>6291</v>
       </c>
       <c r="H8">
-        <v>7971</v>
+        <v>7960</v>
       </c>
       <c r="I8">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J8">
-        <v>14055</v>
+        <v>14047</v>
       </c>
       <c r="K8">
-        <v>1966</v>
+        <v>2233</v>
       </c>
       <c r="L8">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="M8">
         <v>329</v>
       </c>
       <c r="N8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8">
         <v>1064</v>
       </c>
       <c r="P8">
-        <v>5435</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5519,19 +5522,19 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>38229</v>
+        <v>38226</v>
       </c>
       <c r="C9">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="D9">
-        <v>33512</v>
+        <v>33510</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -5549,19 +5552,19 @@
         <v>1774</v>
       </c>
       <c r="L9">
-        <v>4926</v>
+        <v>4925</v>
       </c>
       <c r="M9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N9">
         <v>307</v>
       </c>
       <c r="O9">
-        <v>11966</v>
+        <v>11965</v>
       </c>
       <c r="P9">
-        <v>11113</v>
+        <v>11114</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5569,13 +5572,13 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>36058</v>
+        <v>36079</v>
       </c>
       <c r="C10">
-        <v>10551</v>
+        <v>10564</v>
       </c>
       <c r="D10">
-        <v>25507</v>
+        <v>25515</v>
       </c>
       <c r="E10">
         <v>433</v>
@@ -5584,10 +5587,10 @@
         <v>1878</v>
       </c>
       <c r="G10">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H10">
-        <v>3497</v>
+        <v>3508</v>
       </c>
       <c r="I10">
         <v>4229</v>
@@ -5596,7 +5599,7 @@
         <v>5360</v>
       </c>
       <c r="K10">
-        <v>1533</v>
+        <v>1544</v>
       </c>
       <c r="L10">
         <v>2157</v>
@@ -5611,7 +5614,7 @@
         <v>2331</v>
       </c>
       <c r="P10">
-        <v>13412</v>
+        <v>13409</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5619,16 +5622,16 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>34171</v>
+        <v>34170</v>
       </c>
       <c r="C11">
-        <v>31964</v>
+        <v>31963</v>
       </c>
       <c r="D11">
         <v>2207</v>
       </c>
       <c r="E11">
-        <v>31909</v>
+        <v>31908</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5669,10 +5672,10 @@
         <v>95</v>
       </c>
       <c r="B12">
-        <v>26828</v>
+        <v>26829</v>
       </c>
       <c r="C12">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D12">
         <v>25313</v>
@@ -5687,7 +5690,7 @@
         <v>201</v>
       </c>
       <c r="H12">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I12">
         <v>189</v>
@@ -5719,19 +5722,19 @@
         <v>96</v>
       </c>
       <c r="B13">
-        <v>19994</v>
+        <v>19991</v>
       </c>
       <c r="C13">
-        <v>12955</v>
+        <v>12954</v>
       </c>
       <c r="D13">
-        <v>7039</v>
+        <v>7037</v>
       </c>
       <c r="E13">
         <v>5919</v>
       </c>
       <c r="F13">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13">
         <v>6254</v>
@@ -5758,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6574</v>
+        <v>6572</v>
       </c>
       <c r="P13">
         <v>142</v>
@@ -5769,13 +5772,13 @@
         <v>97</v>
       </c>
       <c r="B14">
-        <v>17576</v>
+        <v>17577</v>
       </c>
       <c r="C14">
-        <v>11442</v>
+        <v>11444</v>
       </c>
       <c r="D14">
-        <v>6134</v>
+        <v>6133</v>
       </c>
       <c r="E14">
         <v>261</v>
@@ -5784,10 +5787,10 @@
         <v>118</v>
       </c>
       <c r="G14">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H14">
-        <v>9694</v>
+        <v>9695</v>
       </c>
       <c r="I14">
         <v>654</v>
@@ -5811,7 +5814,7 @@
         <v>1210</v>
       </c>
       <c r="P14">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5819,13 +5822,13 @@
         <v>98</v>
       </c>
       <c r="B15">
-        <v>7158</v>
+        <v>7159</v>
       </c>
       <c r="C15">
         <v>173</v>
       </c>
       <c r="D15">
-        <v>6985</v>
+        <v>6986</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5849,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15">
         <v>250</v>
@@ -5869,13 +5872,13 @@
         <v>99</v>
       </c>
       <c r="B16">
-        <v>7136</v>
+        <v>7137</v>
       </c>
       <c r="C16">
         <v>53</v>
       </c>
       <c r="D16">
-        <v>7083</v>
+        <v>7084</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5911,7 +5914,7 @@
         <v>246</v>
       </c>
       <c r="P16">
-        <v>5912</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -6019,13 +6022,13 @@
         <v>101</v>
       </c>
       <c r="B19">
-        <v>4629</v>
+        <v>4619</v>
       </c>
       <c r="C19">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="D19">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -6034,7 +6037,7 @@
         <v>197</v>
       </c>
       <c r="G19">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="H19">
         <v>81</v>
@@ -6058,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -6069,13 +6072,13 @@
         <v>102</v>
       </c>
       <c r="B20">
-        <v>4618</v>
+        <v>4616</v>
       </c>
       <c r="C20">
         <v>93</v>
       </c>
       <c r="D20">
-        <v>4525</v>
+        <v>4523</v>
       </c>
       <c r="E20">
         <v>34</v>
@@ -6093,10 +6096,10 @@
         <v>11</v>
       </c>
       <c r="J20">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K20">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L20">
         <v>62</v>
@@ -6119,16 +6122,16 @@
         <v>103</v>
       </c>
       <c r="B21">
-        <v>4601</v>
+        <v>4562</v>
       </c>
       <c r="C21">
-        <v>2959</v>
+        <v>2920</v>
       </c>
       <c r="D21">
         <v>1642</v>
       </c>
       <c r="E21">
-        <v>1919</v>
+        <v>1880</v>
       </c>
       <c r="F21">
         <v>117</v>
@@ -6169,13 +6172,13 @@
         <v>59</v>
       </c>
       <c r="B22">
-        <v>4197</v>
+        <v>4174</v>
       </c>
       <c r="C22">
         <v>165</v>
       </c>
       <c r="D22">
-        <v>4032</v>
+        <v>4009</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -6199,7 +6202,7 @@
         <v>48</v>
       </c>
       <c r="L22">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="M22">
         <v>188</v>
@@ -6211,7 +6214,7 @@
         <v>10</v>
       </c>
       <c r="P22">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -6219,13 +6222,13 @@
         <v>104</v>
       </c>
       <c r="B23">
-        <v>3659</v>
+        <v>3656</v>
       </c>
       <c r="C23">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D23">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E23">
         <v>466</v>
@@ -6237,7 +6240,7 @@
         <v>89</v>
       </c>
       <c r="H23">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I23">
         <v>100</v>
@@ -6261,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -6269,10 +6272,10 @@
         <v>105</v>
       </c>
       <c r="B24">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C24">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D24">
         <v>1162</v>
@@ -6287,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -6369,10 +6372,10 @@
         <v>107</v>
       </c>
       <c r="B26">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C26">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D26">
         <v>1486</v>
@@ -6387,7 +6390,7 @@
         <v>257</v>
       </c>
       <c r="H26">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I26">
         <v>47</v>
@@ -6519,10 +6522,10 @@
         <v>110</v>
       </c>
       <c r="B29">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C29">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D29">
         <v>542</v>
@@ -6540,7 +6543,7 @@
         <v>342</v>
       </c>
       <c r="I29">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J29">
         <v>32</v>
@@ -6719,13 +6722,13 @@
         <v>112</v>
       </c>
       <c r="B33">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C33">
         <v>180</v>
       </c>
       <c r="D33">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E33">
         <v>33</v>
@@ -6758,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="P33">
         <v>6</v>
@@ -6769,10 +6772,10 @@
         <v>113</v>
       </c>
       <c r="B34">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C34">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D34">
         <v>780</v>
@@ -6787,7 +6790,7 @@
         <v>139</v>
       </c>
       <c r="H34">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I34">
         <v>21</v>
@@ -6819,13 +6822,13 @@
         <v>114</v>
       </c>
       <c r="B35">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C35">
         <v>109</v>
       </c>
       <c r="D35">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E35">
         <v>13</v>
@@ -6843,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K35">
         <v>12</v>
@@ -6852,16 +6855,16 @@
         <v>224</v>
       </c>
       <c r="M35">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P35">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -7019,13 +7022,13 @@
         <v>118</v>
       </c>
       <c r="B39">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -7052,16 +7055,16 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P39">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -7769,13 +7772,13 @@
         <v>133</v>
       </c>
       <c r="B54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54">
         <v>15</v>
       </c>
       <c r="D54">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -7793,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -8371,7 +8374,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P137"/>
+  <dimension ref="A1:P138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8429,34 +8432,34 @@
         <v>86</v>
       </c>
       <c r="B2">
-        <v>768520</v>
+        <v>768240</v>
       </c>
       <c r="C2">
-        <v>397124</v>
+        <v>397083</v>
       </c>
       <c r="D2">
-        <v>371396</v>
+        <v>371157</v>
       </c>
       <c r="E2">
-        <v>113804</v>
+        <v>113776</v>
       </c>
       <c r="F2">
-        <v>29127</v>
+        <v>29126</v>
       </c>
       <c r="G2">
-        <v>87040</v>
+        <v>87038</v>
       </c>
       <c r="H2">
-        <v>95368</v>
+        <v>95359</v>
       </c>
       <c r="I2">
-        <v>71785</v>
+        <v>71784</v>
       </c>
       <c r="J2">
-        <v>94790</v>
+        <v>94760</v>
       </c>
       <c r="K2">
-        <v>31562</v>
+        <v>31569</v>
       </c>
       <c r="L2">
         <v>7700</v>
@@ -8468,10 +8471,10 @@
         <v>496</v>
       </c>
       <c r="O2">
-        <v>95209</v>
+        <v>95191</v>
       </c>
       <c r="P2">
-        <v>141499</v>
+        <v>141301</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -8479,13 +8482,13 @@
         <v>144</v>
       </c>
       <c r="B3">
-        <v>172220</v>
+        <v>172219</v>
       </c>
       <c r="C3">
-        <v>159717</v>
+        <v>159712</v>
       </c>
       <c r="D3">
-        <v>12503</v>
+        <v>12507</v>
       </c>
       <c r="E3">
         <v>16528</v>
@@ -8494,19 +8497,19 @@
         <v>16190</v>
       </c>
       <c r="G3">
-        <v>77301</v>
+        <v>77297</v>
       </c>
       <c r="H3">
         <v>6844</v>
       </c>
       <c r="I3">
-        <v>42854</v>
+        <v>42853</v>
       </c>
       <c r="J3">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="K3">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L3">
         <v>241</v>
@@ -8518,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9759</v>
+        <v>9757</v>
       </c>
       <c r="P3">
         <v>90</v>
@@ -8529,49 +8532,49 @@
         <v>55</v>
       </c>
       <c r="B4">
-        <v>72978</v>
+        <v>73003</v>
       </c>
       <c r="C4">
-        <v>29321</v>
+        <v>29269</v>
       </c>
       <c r="D4">
-        <v>43657</v>
+        <v>43734</v>
       </c>
       <c r="E4">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="F4">
         <v>542</v>
       </c>
       <c r="G4">
-        <v>13863</v>
+        <v>13859</v>
       </c>
       <c r="H4">
-        <v>11148</v>
+        <v>11098</v>
       </c>
       <c r="I4">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="J4">
-        <v>20766</v>
+        <v>20757</v>
       </c>
       <c r="K4">
-        <v>3650</v>
+        <v>3729</v>
       </c>
       <c r="L4">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="M4">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="N4">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O4">
-        <v>7578</v>
+        <v>7583</v>
       </c>
       <c r="P4">
-        <v>6664</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -8579,13 +8582,13 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>72606</v>
+        <v>72512</v>
       </c>
       <c r="C5">
         <v>337</v>
       </c>
       <c r="D5">
-        <v>72269</v>
+        <v>72175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8603,13 +8606,13 @@
         <v>232</v>
       </c>
       <c r="J5">
-        <v>12540</v>
+        <v>12537</v>
       </c>
       <c r="K5">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="L5">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="M5">
         <v>2633</v>
@@ -8621,7 +8624,7 @@
         <v>2</v>
       </c>
       <c r="P5">
-        <v>50591</v>
+        <v>50499</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -8629,13 +8632,13 @@
         <v>145</v>
       </c>
       <c r="B6">
-        <v>68535</v>
+        <v>68538</v>
       </c>
       <c r="C6">
         <v>35831</v>
       </c>
       <c r="D6">
-        <v>32704</v>
+        <v>32707</v>
       </c>
       <c r="E6">
         <v>1988</v>
@@ -8656,7 +8659,7 @@
         <v>7594</v>
       </c>
       <c r="K6">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="L6">
         <v>12364</v>
@@ -8671,7 +8674,7 @@
         <v>2187</v>
       </c>
       <c r="P6">
-        <v>4350</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -8679,13 +8682,13 @@
         <v>146</v>
       </c>
       <c r="B7">
-        <v>66102</v>
+        <v>66130</v>
       </c>
       <c r="C7">
-        <v>54763</v>
+        <v>54764</v>
       </c>
       <c r="D7">
-        <v>11339</v>
+        <v>11366</v>
       </c>
       <c r="E7">
         <v>19991</v>
@@ -8700,13 +8703,13 @@
         <v>4559</v>
       </c>
       <c r="I7">
-        <v>9667</v>
+        <v>9668</v>
       </c>
       <c r="J7">
         <v>494</v>
       </c>
       <c r="K7">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="L7">
         <v>26</v>
@@ -8718,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9646</v>
+        <v>9672</v>
       </c>
       <c r="P7">
         <v>269</v>
@@ -8738,19 +8741,19 @@
         <v>7801</v>
       </c>
       <c r="E8">
-        <v>30177</v>
+        <v>30175</v>
       </c>
       <c r="F8">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="G8">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="H8">
         <v>1103</v>
       </c>
       <c r="I8">
-        <v>4239</v>
+        <v>4241</v>
       </c>
       <c r="J8">
         <v>534</v>
@@ -8779,19 +8782,19 @@
         <v>92</v>
       </c>
       <c r="B9">
-        <v>38229</v>
+        <v>38226</v>
       </c>
       <c r="C9">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="D9">
-        <v>33512</v>
+        <v>33510</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -8809,19 +8812,19 @@
         <v>1774</v>
       </c>
       <c r="L9">
-        <v>4926</v>
+        <v>4925</v>
       </c>
       <c r="M9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N9">
         <v>307</v>
       </c>
       <c r="O9">
-        <v>11966</v>
+        <v>11965</v>
       </c>
       <c r="P9">
-        <v>11113</v>
+        <v>11114</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -8829,16 +8832,16 @@
         <v>148</v>
       </c>
       <c r="B10">
-        <v>34171</v>
+        <v>34170</v>
       </c>
       <c r="C10">
-        <v>31964</v>
+        <v>31963</v>
       </c>
       <c r="D10">
         <v>2207</v>
       </c>
       <c r="E10">
-        <v>31909</v>
+        <v>31908</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8879,13 +8882,13 @@
         <v>149</v>
       </c>
       <c r="B11">
-        <v>31423</v>
+        <v>31424</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>31423</v>
+        <v>31424</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8918,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>31198</v>
+        <v>31199</v>
       </c>
       <c r="P11">
         <v>225</v>
@@ -8979,13 +8982,13 @@
         <v>151</v>
       </c>
       <c r="B13">
-        <v>30751</v>
+        <v>30754</v>
       </c>
       <c r="C13">
-        <v>20279</v>
+        <v>20281</v>
       </c>
       <c r="D13">
-        <v>10472</v>
+        <v>10473</v>
       </c>
       <c r="E13">
         <v>76</v>
@@ -8997,16 +9000,16 @@
         <v>6516</v>
       </c>
       <c r="H13">
-        <v>11369</v>
+        <v>11371</v>
       </c>
       <c r="I13">
         <v>1673</v>
       </c>
       <c r="J13">
-        <v>5502</v>
+        <v>5504</v>
       </c>
       <c r="K13">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="L13">
         <v>818</v>
@@ -9029,13 +9032,13 @@
         <v>152</v>
       </c>
       <c r="B14">
-        <v>23289</v>
+        <v>23300</v>
       </c>
       <c r="C14">
         <v>6966</v>
       </c>
       <c r="D14">
-        <v>16323</v>
+        <v>16334</v>
       </c>
       <c r="E14">
         <v>274</v>
@@ -9056,7 +9059,7 @@
         <v>2470</v>
       </c>
       <c r="K14">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="L14">
         <v>929</v>
@@ -9079,19 +9082,19 @@
         <v>153</v>
       </c>
       <c r="B15">
-        <v>19994</v>
+        <v>19991</v>
       </c>
       <c r="C15">
-        <v>12955</v>
+        <v>12954</v>
       </c>
       <c r="D15">
-        <v>7039</v>
+        <v>7037</v>
       </c>
       <c r="E15">
         <v>5919</v>
       </c>
       <c r="F15">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15">
         <v>6254</v>
@@ -9118,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6574</v>
+        <v>6572</v>
       </c>
       <c r="P15">
         <v>142</v>
@@ -9129,13 +9132,13 @@
         <v>154</v>
       </c>
       <c r="B16">
-        <v>17576</v>
+        <v>17577</v>
       </c>
       <c r="C16">
-        <v>11442</v>
+        <v>11444</v>
       </c>
       <c r="D16">
-        <v>6134</v>
+        <v>6133</v>
       </c>
       <c r="E16">
         <v>261</v>
@@ -9144,10 +9147,10 @@
         <v>118</v>
       </c>
       <c r="G16">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H16">
-        <v>9694</v>
+        <v>9695</v>
       </c>
       <c r="I16">
         <v>654</v>
@@ -9171,7 +9174,7 @@
         <v>1210</v>
       </c>
       <c r="P16">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -9229,13 +9232,13 @@
         <v>156</v>
       </c>
       <c r="B18">
-        <v>14676</v>
+        <v>14759</v>
       </c>
       <c r="C18">
-        <v>7090</v>
+        <v>7087</v>
       </c>
       <c r="D18">
-        <v>7586</v>
+        <v>7672</v>
       </c>
       <c r="E18">
         <v>1080</v>
@@ -9247,7 +9250,7 @@
         <v>733</v>
       </c>
       <c r="H18">
-        <v>4700</v>
+        <v>4697</v>
       </c>
       <c r="I18">
         <v>385</v>
@@ -9256,10 +9259,10 @@
         <v>3078</v>
       </c>
       <c r="K18">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="L18">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="M18">
         <v>45</v>
@@ -9279,13 +9282,13 @@
         <v>157</v>
       </c>
       <c r="B19">
-        <v>10620</v>
+        <v>10617</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>10595</v>
+        <v>10593</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -9300,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19">
         <v>97</v>
@@ -9318,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10240</v>
+        <v>10238</v>
       </c>
       <c r="P19">
         <v>158</v>
@@ -9329,10 +9332,10 @@
         <v>158</v>
       </c>
       <c r="B20">
-        <v>9579</v>
+        <v>9578</v>
       </c>
       <c r="C20">
-        <v>9215</v>
+        <v>9214</v>
       </c>
       <c r="D20">
         <v>364</v>
@@ -9341,7 +9344,7 @@
         <v>3115</v>
       </c>
       <c r="F20">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G20">
         <v>3070</v>
@@ -9379,13 +9382,13 @@
         <v>159</v>
       </c>
       <c r="B21">
-        <v>7198</v>
+        <v>7197</v>
       </c>
       <c r="C21">
         <v>1590</v>
       </c>
       <c r="D21">
-        <v>5608</v>
+        <v>5607</v>
       </c>
       <c r="E21">
         <v>15</v>
@@ -9418,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5421</v>
+        <v>5420</v>
       </c>
       <c r="P21">
         <v>23</v>
@@ -9429,13 +9432,13 @@
         <v>160</v>
       </c>
       <c r="B22">
-        <v>7158</v>
+        <v>7159</v>
       </c>
       <c r="C22">
         <v>173</v>
       </c>
       <c r="D22">
-        <v>6985</v>
+        <v>6986</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -9459,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M22">
         <v>250</v>
@@ -9479,13 +9482,13 @@
         <v>161</v>
       </c>
       <c r="B23">
-        <v>7136</v>
+        <v>7137</v>
       </c>
       <c r="C23">
         <v>53</v>
       </c>
       <c r="D23">
-        <v>7083</v>
+        <v>7084</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -9521,7 +9524,7 @@
         <v>246</v>
       </c>
       <c r="P23">
-        <v>5912</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -9529,10 +9532,10 @@
         <v>162</v>
       </c>
       <c r="B24">
-        <v>5867</v>
+        <v>5868</v>
       </c>
       <c r="C24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24">
         <v>5829</v>
@@ -9547,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -9679,13 +9682,13 @@
         <v>165</v>
       </c>
       <c r="B27">
-        <v>4891</v>
+        <v>4883</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>4891</v>
+        <v>4883</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -9718,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>4891</v>
+        <v>4883</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -9729,16 +9732,16 @@
         <v>166</v>
       </c>
       <c r="B28">
-        <v>4601</v>
+        <v>4562</v>
       </c>
       <c r="C28">
-        <v>2959</v>
+        <v>2920</v>
       </c>
       <c r="D28">
         <v>1642</v>
       </c>
       <c r="E28">
-        <v>1919</v>
+        <v>1880</v>
       </c>
       <c r="F28">
         <v>117</v>
@@ -9829,10 +9832,10 @@
         <v>168</v>
       </c>
       <c r="B30">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="C30">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="D30">
         <v>1369</v>
@@ -9844,7 +9847,7 @@
         <v>197</v>
       </c>
       <c r="G30">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="H30">
         <v>81</v>
@@ -9879,13 +9882,13 @@
         <v>169</v>
       </c>
       <c r="B31">
-        <v>4511</v>
+        <v>4509</v>
       </c>
       <c r="C31">
         <v>72</v>
       </c>
       <c r="D31">
-        <v>4439</v>
+        <v>4437</v>
       </c>
       <c r="E31">
         <v>34</v>
@@ -9903,10 +9906,10 @@
         <v>11</v>
       </c>
       <c r="J31">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K31">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L31">
         <v>62</v>
@@ -9929,13 +9932,13 @@
         <v>59</v>
       </c>
       <c r="B32">
-        <v>4197</v>
+        <v>4174</v>
       </c>
       <c r="C32">
         <v>165</v>
       </c>
       <c r="D32">
-        <v>4032</v>
+        <v>4009</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -9959,7 +9962,7 @@
         <v>48</v>
       </c>
       <c r="L32">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="M32">
         <v>188</v>
@@ -9971,7 +9974,7 @@
         <v>10</v>
       </c>
       <c r="P32">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -9979,13 +9982,13 @@
         <v>170</v>
       </c>
       <c r="B33">
-        <v>3659</v>
+        <v>3656</v>
       </c>
       <c r="C33">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D33">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E33">
         <v>466</v>
@@ -9997,7 +10000,7 @@
         <v>89</v>
       </c>
       <c r="H33">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I33">
         <v>100</v>
@@ -10021,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -10129,10 +10132,10 @@
         <v>173</v>
       </c>
       <c r="B36">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="C36">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="D36">
         <v>1407</v>
@@ -10144,7 +10147,7 @@
         <v>261</v>
       </c>
       <c r="G36">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H36">
         <v>969</v>
@@ -10179,10 +10182,10 @@
         <v>174</v>
       </c>
       <c r="B37">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C37">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D37">
         <v>1162</v>
@@ -10197,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -10379,13 +10382,13 @@
         <v>178</v>
       </c>
       <c r="B41">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -10421,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -10479,10 +10482,10 @@
         <v>179</v>
       </c>
       <c r="B43">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C43">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D43">
         <v>542</v>
@@ -10500,7 +10503,7 @@
         <v>342</v>
       </c>
       <c r="I43">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J43">
         <v>32</v>
@@ -10729,13 +10732,13 @@
         <v>182</v>
       </c>
       <c r="B48">
-        <v>1227</v>
+        <v>1184</v>
       </c>
       <c r="C48">
         <v>902</v>
       </c>
       <c r="D48">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E48">
         <v>138</v>
@@ -10753,7 +10756,7 @@
         <v>149</v>
       </c>
       <c r="J48">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -10771,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -10929,19 +10932,19 @@
         <v>186</v>
       </c>
       <c r="B52">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D52">
-        <v>785</v>
+        <v>587</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -10950,16 +10953,16 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -10968,10 +10971,10 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>785</v>
+        <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -10979,19 +10982,19 @@
         <v>187</v>
       </c>
       <c r="B53">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C53">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>577</v>
+        <v>784</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -11000,16 +11003,16 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -11018,10 +11021,10 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="P53">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -11029,13 +11032,13 @@
         <v>188</v>
       </c>
       <c r="B54">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C54">
         <v>228</v>
       </c>
       <c r="D54">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -11053,7 +11056,7 @@
         <v>62</v>
       </c>
       <c r="J54">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K54">
         <v>127</v>
@@ -11129,13 +11132,13 @@
         <v>190</v>
       </c>
       <c r="B56">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C56">
         <v>603</v>
       </c>
       <c r="D56">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56">
         <v>592</v>
@@ -11159,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -11379,13 +11382,13 @@
         <v>195</v>
       </c>
       <c r="B61">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C61">
         <v>13</v>
       </c>
       <c r="D61">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E61">
         <v>13</v>
@@ -11403,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -11418,10 +11421,10 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P61">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -11679,13 +11682,13 @@
         <v>201</v>
       </c>
       <c r="B67">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -11712,7 +11715,7 @@
         <v>17</v>
       </c>
       <c r="M67">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -12879,10 +12882,10 @@
         <v>224</v>
       </c>
       <c r="B91">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C91">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D91">
         <v>58</v>
@@ -12897,7 +12900,7 @@
         <v>11</v>
       </c>
       <c r="H91">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -12929,13 +12932,13 @@
         <v>225</v>
       </c>
       <c r="B92">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D92">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -12944,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -12968,10 +12971,10 @@
         <v>0</v>
       </c>
       <c r="O92">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -13029,28 +13032,28 @@
         <v>227</v>
       </c>
       <c r="B94">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C94">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="D94">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -13071,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -13079,31 +13082,31 @@
         <v>228</v>
       </c>
       <c r="B95">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C95">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E95">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -13121,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -13129,13 +13132,13 @@
         <v>229</v>
       </c>
       <c r="B96">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D96">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -13144,16 +13147,16 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -13171,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -13179,13 +13182,13 @@
         <v>230</v>
       </c>
       <c r="B97">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C97">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -13194,10 +13197,10 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -13218,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -13629,13 +13632,13 @@
         <v>89</v>
       </c>
       <c r="B106">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -13668,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -13741,16 +13744,16 @@
         <v>0</v>
       </c>
       <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
         <v>55</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -13791,7 +13794,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -13800,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -13829,13 +13832,13 @@
         <v>242</v>
       </c>
       <c r="B110">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C110">
         <v>15</v>
       </c>
       <c r="D110">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -13853,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -14618,10 +14621,10 @@
         <v>0</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P125">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -14629,13 +14632,13 @@
         <v>256</v>
       </c>
       <c r="B126">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -14668,10 +14671,10 @@
         <v>0</v>
       </c>
       <c r="O126">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P126">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -14679,13 +14682,13 @@
         <v>257</v>
       </c>
       <c r="B127">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -14718,10 +14721,10 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P127">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -14779,13 +14782,13 @@
         <v>259</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C129">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -14794,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -14821,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="P129">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -14838,13 +14841,13 @@
         <v>0</v>
       </c>
       <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
         <v>16</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -14879,16 +14882,16 @@
         <v>261</v>
       </c>
       <c r="B131">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D131">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -14912,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -14962,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -14971,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="P132">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -14979,13 +14982,13 @@
         <v>263</v>
       </c>
       <c r="B133">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C133">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -14994,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -15021,7 +15024,7 @@
         <v>0</v>
       </c>
       <c r="P133">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -15029,10 +15032,10 @@
         <v>264</v>
       </c>
       <c r="B134">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C134">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -15044,10 +15047,10 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H134">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -15079,16 +15082,16 @@
         <v>265</v>
       </c>
       <c r="B135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -15097,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -15129,16 +15132,16 @@
         <v>266</v>
       </c>
       <c r="B136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D136">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -15159,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -15176,51 +15179,101 @@
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>7</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>7</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <v>4</v>
       </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
         <v>4</v>
       </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
         <v>4</v>
       </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137">
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
         <v>0</v>
       </c>
     </row>
@@ -15289,60 +15342,60 @@
         <v>55</v>
       </c>
       <c r="B2">
-        <v>546349</v>
+        <v>546306</v>
       </c>
       <c r="C2">
-        <v>219238</v>
+        <v>219122</v>
       </c>
       <c r="D2">
-        <v>327111</v>
+        <v>327184</v>
       </c>
       <c r="E2">
-        <v>82560</v>
+        <v>82511</v>
       </c>
       <c r="F2">
-        <v>17784</v>
+        <v>17783</v>
       </c>
       <c r="G2">
-        <v>41146</v>
+        <v>41141</v>
       </c>
       <c r="H2">
-        <v>55424</v>
+        <v>55366</v>
       </c>
       <c r="I2">
-        <v>22324</v>
+        <v>22321</v>
       </c>
       <c r="J2">
-        <v>73389</v>
+        <v>73378</v>
       </c>
       <c r="K2">
-        <v>17898</v>
+        <v>18111</v>
       </c>
       <c r="L2">
-        <v>25970</v>
+        <v>25963</v>
       </c>
       <c r="M2">
         <v>11995</v>
       </c>
       <c r="N2">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="O2">
-        <v>92860</v>
+        <v>92877</v>
       </c>
       <c r="P2">
-        <v>102505</v>
+        <v>102367</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B3">
-        <v>133580</v>
+        <v>133577</v>
       </c>
       <c r="C3">
-        <v>133384</v>
+        <v>133381</v>
       </c>
       <c r="D3">
         <v>196</v>
@@ -15351,10 +15404,10 @@
         <v>1181</v>
       </c>
       <c r="F3">
-        <v>15490</v>
+        <v>15491</v>
       </c>
       <c r="G3">
-        <v>69508</v>
+        <v>69504</v>
       </c>
       <c r="H3">
         <v>5605</v>
@@ -15386,16 +15439,16 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B4">
-        <v>26570</v>
+        <v>26572</v>
       </c>
       <c r="C4">
         <v>21452</v>
       </c>
       <c r="D4">
-        <v>5118</v>
+        <v>5120</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -15416,7 +15469,7 @@
         <v>1267</v>
       </c>
       <c r="K4">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -15436,13 +15489,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B5">
-        <v>18245</v>
+        <v>18244</v>
       </c>
       <c r="C5">
-        <v>12955</v>
+        <v>12954</v>
       </c>
       <c r="D5">
         <v>5290</v>
@@ -15451,7 +15504,7 @@
         <v>5919</v>
       </c>
       <c r="F5">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5">
         <v>6254</v>
@@ -15486,13 +15539,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B6">
-        <v>7849</v>
+        <v>7847</v>
       </c>
       <c r="C6">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="D6">
         <v>2068</v>
@@ -15501,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G6">
         <v>3323</v>
@@ -15510,7 +15563,7 @@
         <v>847</v>
       </c>
       <c r="I6">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J6">
         <v>67</v>
@@ -15536,16 +15589,16 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B7">
-        <v>7275</v>
+        <v>7274</v>
       </c>
       <c r="C7">
         <v>6247</v>
       </c>
       <c r="D7">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E7">
         <v>532</v>
@@ -15581,12 +15634,12 @@
         <v>97</v>
       </c>
       <c r="P7">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B8">
         <v>6722</v>
@@ -15636,7 +15689,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B9">
         <v>5735</v>
@@ -15686,16 +15739,16 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B10">
-        <v>4623</v>
+        <v>4625</v>
       </c>
       <c r="C10">
         <v>13</v>
       </c>
       <c r="D10">
-        <v>4610</v>
+        <v>4612</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -15713,7 +15766,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="K10">
         <v>497</v>
@@ -15736,13 +15789,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B11">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="C11">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D11">
         <v>1107</v>
@@ -15757,7 +15810,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -15786,7 +15839,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B12">
         <v>2171</v>
@@ -15836,7 +15889,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>1560</v>
@@ -15886,7 +15939,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B14">
         <v>977</v>
@@ -15936,7 +15989,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B15">
         <v>695</v>
@@ -15986,7 +16039,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B16">
         <v>474</v>
@@ -16036,7 +16089,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B17">
         <v>388</v>
@@ -16086,34 +16139,34 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B18">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C18">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="D18">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -16128,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -16136,34 +16189,34 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B19">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C19">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="H19">
-        <v>291</v>
+        <v>54</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -16178,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -16186,7 +16239,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B20">
         <v>288</v>
@@ -16236,7 +16289,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B21">
         <v>130</v>
@@ -16286,7 +16339,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B22">
         <v>104</v>
@@ -16336,7 +16389,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B23">
         <v>96</v>
@@ -16386,16 +16439,16 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -16428,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -16436,7 +16489,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B25">
         <v>60</v>
@@ -16486,7 +16539,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B26">
         <v>55</v>
@@ -16536,7 +16589,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B27">
         <v>32</v>
@@ -16586,7 +16639,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -16636,7 +16689,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -16686,7 +16739,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30">
         <v>15</v>
@@ -16736,7 +16789,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31">
         <v>15</v>
@@ -16786,7 +16839,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -16836,7 +16889,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33">
         <v>8</v>
